--- a/cluster_list.xlsx
+++ b/cluster_list.xlsx
@@ -576,7 +576,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>410,276,116,100,56,392,757,842,616,268,604,434</t>
+          <t>410,276,116,100,等12项</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -591,12 +591,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>100,276,152,724,710,490,842,699,392,604,36,784,400</t>
+          <t>100,276,152,724,等13项</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>124,826,842,392,642,268,682,376,428,776</t>
+          <t>124,826,842,392,等10项</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>124,528,710,458,36,76,484,490,516,894,699,246,398</t>
+          <t>124,528,710,458,等13项</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -621,27 +621,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>616,381,484,752,975,56,344,251,364,704,458,757,496,268,826,516,180,620,246,76,792,894,192,320,504,51,68,788,70,690,608,40,32,642,804,442,579,764,203,688,512,702,360,418,348,372,188,426,31,376,834,748,703,508,384,837,643,682,408,818,72,454,300,388,92,600,60,214,450,554,591,270,4,838,499,398,860,233,218,417,232,170,598,178,807,762,899,716,586,352,404,478,104,8,275,566,422,24,470,729,208,196,646</t>
+          <t>616,381,484,752,等103项</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>490,516,458,608,381,251,344,894,364,702,764,757,704,300,116,710,320,40,246,566,626,616,792,484,51,512,496,104,643,752,76,688,56,579,540,804,360,70,586,620,528,442,214,188,788,203,192,899,748,180,144,780,662,92,44,585,340,191,705,52,218,348,716,508,426,591,837,384,72,703,634,398,499,31,404,231,504,834,372,690,860,178,729,233,170,598,32,418,68,232,807,450,762,818,470,800,417,466,478,196,8,266,408,454,558,400,414,760,440,12,554</t>
+          <t>490,516,458,608,等111项</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>116,490,458,752,344,616,704,608,381,702,251,364,484,516,56,104,792,246,834,360,764,442,784,170,414,90,320,804,554,496,450,404,788,300,579,528,512,688,642,180,70,12,422,352,40,292,643,682,214,620,586,716,894,508,591,426,837,384,748,203,72,332,92,52,222,703,32,218,566,705,191,348,887,31,8,418,706,196,499,504,398,480,690,440,860,428,729,233,51,598,68,899,232,807,762,417,470,818,288,694,478,340,372,275,178,231,50</t>
+          <t>116,490,458,752,等107项</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>360,826,704,381,792,251,702,344,784,180,376,804,222,752,788,104,404,320,96,608,566,496,364,643,642,40,764,372,688,203,68,620,418,682,32,300,340,440,208,51,352,70,504,384,348,834,508,860,72,31,579,646,818,705,422,499,512,188,84,44,52,586,218,214,408,196,417,899,591,170,598,716,807,8,762,178,706,288,231,478,232,450,568,858,442,262,470,204,577,212,50</t>
+          <t>360,826,704,381,等91项</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>710,458,490,251,826,360,56,688,699,516,344,757,764,100,381,804,704,180,246,320,792,752,800,32,364,218,616,608,116,504,40,579,376,702,642,528,422,643,442,300,784,484,634,404,586,352,620,70,894,384,233,508,499,716,72,418,348,372,454,222,368,533,818,214,682,705,203,554,208,31,690,839,170,51,398,591,232,178,834,899,807,8,68,496,598,566,512,104,748,231,450,144,478,196,762,417,858,440,308,562,568,204,706</t>
+          <t>710,458,490,251,等103项</t>
         </is>
       </c>
     </row>

--- a/cluster_list.xlsx
+++ b/cluster_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>label</t>
+          <t>E</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -460,6 +460,31 @@
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
@@ -494,6 +519,31 @@
           <t>156</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -501,27 +551,52 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>410</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>710</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>410</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>100,724</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>97,124,975,724</t>
+          <t>528</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>528</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>410,100</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>724</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>724</t>
         </is>
       </c>
     </row>
@@ -531,27 +606,52 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>710</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>410,724,100,152,784</t>
+          <t>276,100,604,410</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>410,975,152</t>
+          <t>699,484,276,100</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>276,398,410,152,604,842,246,608</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>100,152,276,842,410,604,724</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>724,410,124,100</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>724,152,784</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>152,724,604,757</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>124</t>
         </is>
       </c>
     </row>
@@ -561,27 +661,52 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>124,410</t>
+          <t>56,90,276,604</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>276,699,975,604,36</t>
+          <t>752,724,246,842,等14项</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>276,724,100,710,392,757,604</t>
+          <t>124,152,604,724,842,792,752,36</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>410,276,116,100,等12项</t>
+          <t>702,704,579,191,392,36,699,124</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>410,842,392,76,152,860</t>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>604,152,36,710,等12项</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>604,410,246,699,等16项</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>710,398,616,392,528,842,376,276</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>100,604</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>410,458</t>
         </is>
       </c>
     </row>
@@ -591,27 +716,52 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>100,276,152,724,等13项</t>
+          <t>842,100,608,894,等17项</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>124,826,842,392,等10项</t>
+          <t>344,484,124,608,76,784,894</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>124,36,842,699,826,76,268,376,48</t>
+          <t>417,392,710,894,76,608,826</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>124,528,710,458,等13项</t>
+          <t>710,894,76,887,484</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>268,36,604</t>
+          <t>36,124,398,699,等10项</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>246,76</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>76,608,710,704,484</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>76,36,699,124,等11项</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>410,757,56,842,等15项</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>842,860,392,528,等10项</t>
         </is>
       </c>
     </row>
@@ -621,27 +771,52 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>616,381,484,752,等103项</t>
+          <t>643,752,516,826,等100项</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>490,516,458,608,等111项</t>
+          <t>643,516,757,398,等99项</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>116,490,458,752,等107项</t>
+          <t>528,616,246,251,等101项</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>360,826,704,381,等91项</t>
+          <t>56,643,757,752,等98项</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>710,458,490,251,等103项</t>
+          <t>608,710,616,484,等146项</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>484,608,894,360,等94项</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>894,643,458,616,等101项</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>360,702,643,458,等97项</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>381,528,484,246,等94项</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>246,699,484,100,等95项</t>
         </is>
       </c>
     </row>

--- a/cluster_list.xlsx
+++ b/cluster_list.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>710</t>
+          <t>604</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>152,604</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>100,724</t>
+          <t>152,604</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -576,27 +576,27 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>604,152</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>604</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>410,100</t>
+          <t>152,604</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>152,604</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>152,724</t>
         </is>
       </c>
     </row>
@@ -606,52 +606,52 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>710</t>
+          <t>604</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>276,100,604,410</t>
+          <t>152,276,36</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>699,484,276,100</t>
+          <t>276,410,100,36,842,724</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>276,398,410,152,604,842,246,608</t>
+          <t>724,36,276,410,842</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>100,152,276,842,410,604,724</t>
+          <t>152</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>724,410,124,100</t>
+          <t>724,392</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>724,152,784</t>
+          <t>152</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>152,724,604,757</t>
+          <t>724</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>724</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>410,604,842,392</t>
         </is>
       </c>
     </row>
@@ -661,52 +661,52 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>56,90,276,604</t>
+          <t>36,152,276,608,724</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>752,724,246,842,等14项</t>
+          <t>410,842,724,100</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>124,152,604,724,842,792,752,36</t>
+          <t>484</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>702,704,579,191,392,36,699,124</t>
+          <t>100,124,392</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>604</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>604,152,36,710,等12项</t>
+          <t>124,410,100,842,699,36,276</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>604,410,246,699,等16项</t>
+          <t>724,410,392,699,842,100,36</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>710,398,616,392,528,842,376,276</t>
+          <t>392,410,100,36,76</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>100,604</t>
+          <t>842,410,392,36,124,76,100</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>410,458</t>
+          <t>124,76,36</t>
         </is>
       </c>
     </row>
@@ -716,52 +716,52 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>842,100,608,894,等17项</t>
+          <t>842,124,392,100,484,710,598,699</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>344,484,124,608,76,784,894</t>
+          <t>699,124,392,710,484,76,608,643</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>417,392,710,894,76,608,826</t>
+          <t>699,124,392,76,710,894,608</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>710,894,76,887,484</t>
+          <t>699,76,710</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>36,124,398,699,等10项</t>
+          <t>276,724,842,410,36,100,124</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>246,76</t>
+          <t>76,246,484,360,等11项</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>76,608,710,704,484</t>
+          <t>124,276,76,484,608,710,246,643</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>76,36,699,124,等11项</t>
+          <t>842,276,124</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>410,757,56,842,等15项</t>
+          <t>699,484,276,398,710,360</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>842,860,392,528,等10项</t>
+          <t>276,180,484,360,等16项</t>
         </is>
       </c>
     </row>
@@ -771,52 +771,52 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>643,752,516,826,等100项</t>
+          <t>76,246,792,51,等108项</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>643,516,757,398,等99项</t>
+          <t>398,792,894,752,等108项</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>528,616,246,251,等101项</t>
+          <t>398,792,528,826,等105项</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>56,643,757,752,等98项</t>
+          <t>608,484,894,398,等108项</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>608,710,616,484,等146项</t>
+          <t>76,699,392,710,等154项</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>484,608,894,360,等94项</t>
+          <t>834,56,620,792,等91项</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>894,643,458,616,等101项</t>
+          <t>51,180,894,360,等109项</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>360,702,643,458,等97项</t>
+          <t>699,484,360,608,等111项</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>381,528,484,246,等94项</t>
+          <t>51,792,246,643,等97项</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>246,699,484,100,等95项</t>
+          <t>608,516,688,642,等82项</t>
         </is>
       </c>
     </row>
